--- a/biology/Histoire de la zoologie et de la botanique/Dorothy_Cayley/Dorothy_Cayley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dorothy_Cayley/Dorothy_Cayley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorothy Mary Cayley (1874-1955) est une mycologue qui découvrit en 1927 que la panachure de la tulipe est due à un virus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorothy Mary Cayley (1874-1955) est une mycologue qui découvrit en 1927 que la panachure de la tulipe est due à un virus.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothy Cayley est née à Ceylan (Sri Lanka aujourd'hui) d'un père anglais, Sir Richard Cayley, qui était le 14e juge à la Cour suprême, dans l'administration coloniale. Dorothy Cayley est arrivée en Angleterre à l'âge de sept ans et a fréquenté la  Stamford High School.
-Elle a fréquenté l'université de Londres avant d'étudier l'horticulture au Collège de l'université de Reading[2].
-Elle a poursuivi ses études à la Stamford High School, puis a déménagé en Allemagne où elle a étudié la musique. Elle a étudié les sciences pendant un certain temps avant d'aller au Collège de l'université de Reading où elle a obtenu un diplôme d'horticulture[2].
+Elle a fréquenté l'université de Londres avant d'étudier l'horticulture au Collège de l'université de Reading.
+Elle a poursuivi ses études à la Stamford High School, puis a déménagé en Allemagne où elle a étudié la musique. Elle a étudié les sciences pendant un certain temps avant d'aller au Collège de l'université de Reading où elle a obtenu un diplôme d'horticulture.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorothy Cayley était particulièrement intéressée par les maladies des plantes et du sol et s'est présentée devant le jury des examens scolaires en horticulture, ce qui lui a permis d'obtenir une mention très bien et une médaille à Reading. Elle a également remporté une mention à l'examen de la Royal Horticultural Society et a été nommée surintendante des jardins appartenant au département de botanique de Reading.
 </t>
